--- a/public/rr.xlsx
+++ b/public/rr.xlsx
@@ -200,6 +200,117 @@
         </is>
       </c>
     </row>
+    <row r="5" spans="1:7" customHeight="0">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>王涛</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>美术</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>油画</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>123131231</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customHeight="0">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>王涛</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>美术</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>油画</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>123131231</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customHeight="0">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>王涛</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>美术</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>油画</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>123131231</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>